--- a/data/fruitdata4.xlsx
+++ b/data/fruitdata4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jenny/Desktop/map_excel_reprex/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40522803-F968-4045-8613-B78853EABF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F57EC2-13F6-2247-86DA-D75175F96A9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{08F147B1-D039-BB49-9E49-40E1993668EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>fruit</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>strawberries</t>
-  </si>
-  <si>
-    <t>weight</t>
   </si>
   <si>
     <t>yellow</t>
@@ -418,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CCC014-E323-1A48-9F54-3063F09E2BF0}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,27 +431,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>545</v>
-      </c>
-      <c r="D2">
         <v>5684</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -462,37 +453,28 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>264</v>
-      </c>
-      <c r="D3">
         <v>6754</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>346</v>
-      </c>
-      <c r="D4">
         <v>3423</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>456</v>
-      </c>
-      <c r="D5">
         <v>5674</v>
       </c>
     </row>
